--- a/assets/excel/Data User.xlsx
+++ b/assets/excel/Data User.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>Administrator</t>
+  </si>
+  <si>
+    <t>kepsek</t>
+  </si>
+  <si>
+    <t>Kepala Sekolah</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,6 +402,17 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
